--- a/hospitaldataDictionary.xlsx
+++ b/hospitaldataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodge\Documents\profitableHospital-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6746E-4562-4F76-9A4B-1F69D368139A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AD272D-887F-4FF8-A3E7-09508834931F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CF17645-0342-49FF-9A6E-B22FAB710C29}"/>
   </bookViews>
@@ -777,7 +777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,6 +793,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,6 +873,15 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD81FAB4-3703-4647-BA13-B32BBB08954E}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1291,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1280,7 +1307,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1288,7 +1315,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1312,7 +1339,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1327,7 +1354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1335,7 +1362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1351,7 +1378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1359,15 +1386,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1375,7 +1402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
@@ -1383,7 +1410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -1391,7 +1418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1399,15 +1426,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
@@ -1415,7 +1442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -1423,7 +1450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -1431,7 +1458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -1439,7 +1466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
@@ -1447,7 +1474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
@@ -1455,7 +1482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -1463,7 +1490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
@@ -1471,7 +1498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -1479,7 +1506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
@@ -1487,7 +1514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>54</v>
       </c>
@@ -1495,7 +1522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
@@ -1503,7 +1530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>56</v>
       </c>
@@ -1511,7 +1538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -1519,7 +1546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
@@ -1527,7 +1554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>59</v>
       </c>
@@ -1535,7 +1562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
@@ -1543,7 +1570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
@@ -1551,7 +1578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
@@ -1559,7 +1586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
@@ -1567,15 +1594,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>66</v>
       </c>
@@ -1583,15 +1610,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -1599,7 +1626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>72</v>
       </c>
@@ -1607,7 +1634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>74</v>
       </c>
@@ -1615,7 +1642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -1623,47 +1650,47 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>88</v>
       </c>
@@ -1671,7 +1698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>90</v>
       </c>
@@ -1679,7 +1706,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>92</v>
       </c>
@@ -1687,7 +1714,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>94</v>
       </c>
@@ -1695,7 +1722,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>96</v>
       </c>
@@ -1703,7 +1730,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>98</v>
       </c>
@@ -1711,7 +1738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>100</v>
       </c>
@@ -1719,7 +1746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>102</v>
       </c>
@@ -1727,7 +1754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>104</v>
       </c>
@@ -1735,7 +1762,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>106</v>
       </c>
@@ -1751,7 +1778,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>110</v>
       </c>
@@ -1759,7 +1786,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>112</v>
       </c>
@@ -1767,7 +1794,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>114</v>
       </c>
@@ -1783,7 +1810,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>118</v>
       </c>
@@ -1791,7 +1818,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>120</v>
       </c>
@@ -1799,7 +1826,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>122</v>
       </c>
@@ -1807,7 +1834,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
@@ -1815,7 +1842,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>126</v>
       </c>
@@ -1823,7 +1850,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>128</v>
       </c>
@@ -1831,7 +1858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>130</v>
       </c>
@@ -1839,15 +1866,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>134</v>
       </c>
@@ -1855,7 +1882,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>136</v>
       </c>
@@ -1863,7 +1890,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>138</v>
       </c>
@@ -1871,7 +1898,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>140</v>
       </c>
@@ -1879,7 +1906,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>142</v>
       </c>
@@ -1887,7 +1914,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>144</v>
       </c>
@@ -1895,7 +1922,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>146</v>
       </c>
@@ -1903,7 +1930,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>148</v>
       </c>
@@ -1911,7 +1938,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>150</v>
       </c>
@@ -1919,7 +1946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>152</v>
       </c>
@@ -1927,7 +1954,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>154</v>
       </c>
@@ -1935,7 +1962,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>156</v>
       </c>
@@ -1943,7 +1970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>158</v>
       </c>
@@ -1951,7 +1978,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>160</v>
       </c>
@@ -1959,7 +1986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>162</v>
       </c>
@@ -1967,15 +1994,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>166</v>
       </c>
@@ -1983,7 +2010,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>168</v>
       </c>
@@ -1991,7 +2018,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>170</v>
       </c>
@@ -1999,7 +2026,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>172</v>
       </c>
@@ -2007,7 +2034,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>174</v>
       </c>
@@ -2015,7 +2042,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>176</v>
       </c>
@@ -2023,7 +2050,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>178</v>
       </c>
@@ -2031,7 +2058,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>180</v>
       </c>
@@ -2039,7 +2066,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>182</v>
       </c>
@@ -2047,7 +2074,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>184</v>
       </c>
@@ -2055,7 +2082,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>186</v>
       </c>
@@ -2063,7 +2090,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>188</v>
       </c>
@@ -2071,7 +2098,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>190</v>
       </c>
@@ -2079,7 +2106,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>192</v>
       </c>
@@ -2087,31 +2114,31 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="4" t="s">
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="8" t="s">
         <v>196</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="8" t="s">
         <v>198</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>200</v>
       </c>
@@ -2119,7 +2146,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>202</v>
       </c>
@@ -2127,7 +2154,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>204</v>
       </c>
@@ -2135,7 +2162,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>206</v>
       </c>
@@ -2143,7 +2170,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>208</v>
       </c>
@@ -2151,7 +2178,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>210</v>
       </c>
@@ -2159,7 +2186,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>212</v>
       </c>
@@ -2167,8 +2194,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -2184,30 +2211,30 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B125" s="7"/>
+      <c r="B125" s="10"/>
     </row>
     <row r="126" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B126" s="8"/>
+      <c r="B126" s="11"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B127" s="9"/>
+      <c r="B127" s="12"/>
     </row>
     <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B128" s="10"/>
-    </row>
-    <row r="129" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="13"/>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>221</v>
       </c>
@@ -2215,7 +2242,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>223</v>
       </c>
@@ -2223,7 +2250,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>225</v>
       </c>
@@ -2231,7 +2258,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>227</v>
       </c>
@@ -2239,7 +2266,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>229</v>
       </c>
